--- a/biology/Zoologie/Cynomops/Cynomops.xlsx
+++ b/biology/Zoologie/Cynomops/Cynomops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynomops est un genre de chauves-souris de la famille des Molossidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les petites chauves-souris appartenant au genre Cynomops ont une longueur de la tête et du corps entre 50 et 78 mm, la longueur de l'avant-bras entre 30 et 49 mm, la longueur de la queue entre 22 et 34 mm et un poids jusqu'à 29 g.
 Le crâne a un rostre court au même niveau que le neurocrâne. Les incisives supérieure
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est présent en Amérique centrale et en Amérique du Sud.
 </t>
@@ -576,7 +592,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cynomops abrasus (Temminck, 1826) - Grand Cynomope
 Cynomops freemani Moras et al., 2018
@@ -616,6 +634,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
